--- a/Survey_cleaned.xlsx
+++ b/Survey_cleaned.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/Rprojects/border_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C78B87-3456-1D4E-A739-EE7A9B3DC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD3512-6750-2E4E-ABE1-06F1671A46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2240" windowWidth="28800" windowHeight="15380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="2240" windowWidth="28800" windowHeight="15380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="environmental_survey" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="health" sheetId="2" r:id="rId5"/>
-    <sheet name="combined" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="health" sheetId="2" r:id="rId6"/>
+    <sheet name="combined" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">combined!$A$2:$AO$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">combined!$A$2:$AO$33</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$38:$A$41</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$B$38:$B$41</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
@@ -32,6 +35,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7020" uniqueCount="731">
   <si>
     <t>Q3_4_TEXT</t>
   </si>
@@ -2230,6 +2234,18 @@
   </si>
   <si>
     <t>NOGU127</t>
+  </si>
+  <si>
+    <t>City and state government</t>
+  </si>
+  <si>
+    <t>Multiparty</t>
+  </si>
+  <si>
+    <t>Well owners</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2411,9 +2427,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2429,32 +2442,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2565,6 +2577,571 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$3:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>City</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Multiparty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Well owners</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>State</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>County Health Department</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABEB-114E-B452-988CAA8B442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$38:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>City and state government</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Local News (TV)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Social networks (Facebook, Instagram, Twitter)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$38:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25F4-194C-B94B-22CB17522E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2999,6 +3576,83 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -3036,6 +3690,1044 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3542,6 +5234,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC187E3B-C9D9-4E5F-D30B-217DCE7BAE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4EDF68-9B0D-5A8F-24A1-B2E95AECD916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -3891,17 +5660,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C6B73C-8EC0-1C41-94D1-DA22678BC15D}">
   <dimension ref="A1:IW47"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL18" sqref="AL18"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U1" activeCellId="1" sqref="T1:T1048576 U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="16" customWidth="1"/>
     <col min="3" max="3" width="51.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
@@ -3917,7 +5686,7 @@
     <col min="18" max="18" width="58.33203125" customWidth="1"/>
     <col min="19" max="19" width="35.83203125" customWidth="1"/>
     <col min="20" max="20" width="77.5" customWidth="1"/>
-    <col min="21" max="21" width="35.83203125" customWidth="1"/>
+    <col min="21" max="21" width="112.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.1640625" customWidth="1"/>
     <col min="23" max="23" width="25" customWidth="1"/>
     <col min="24" max="24" width="17.6640625"/>
@@ -4081,10 +5850,10 @@
       <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4195,7 +5964,7 @@
       <c r="AO2" t="s">
         <v>637</v>
       </c>
-      <c r="AP2" s="17">
+      <c r="AP2" s="16">
         <v>0</v>
       </c>
       <c r="AQ2">
@@ -4206,10 +5975,10 @@
       <c r="A3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4322,7 +6091,7 @@
       <c r="AO3" t="s">
         <v>637</v>
       </c>
-      <c r="AP3" s="17">
+      <c r="AP3" s="16">
         <v>0</v>
       </c>
       <c r="AQ3">
@@ -4333,10 +6102,10 @@
       <c r="A4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4449,7 +6218,7 @@
       <c r="AO4" t="s">
         <v>638</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AP4" s="16">
         <v>7200</v>
       </c>
       <c r="AQ4">
@@ -4460,10 +6229,10 @@
       <c r="A5" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4576,7 +6345,7 @@
       <c r="AO5" t="s">
         <v>638</v>
       </c>
-      <c r="AP5" s="17">
+      <c r="AP5" s="16">
         <v>8000</v>
       </c>
       <c r="AQ5">
@@ -4587,10 +6356,10 @@
       <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -4703,7 +6472,7 @@
       <c r="AO6" t="s">
         <v>637</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AP6" s="16">
         <v>0</v>
       </c>
       <c r="AQ6">
@@ -4714,10 +6483,10 @@
       <c r="A7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4830,7 +6599,7 @@
       <c r="AO7" t="s">
         <v>638</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AP7" s="16">
         <v>16000</v>
       </c>
       <c r="AQ7">
@@ -4841,10 +6610,10 @@
       <c r="A8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4955,7 +6724,7 @@
       <c r="AO8" t="s">
         <v>637</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="16">
         <v>0</v>
       </c>
       <c r="AQ8">
@@ -4966,10 +6735,10 @@
       <c r="A9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -5082,7 +6851,7 @@
       <c r="AO9" t="s">
         <v>637</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AP9" s="16">
         <v>0</v>
       </c>
       <c r="AQ9">
@@ -5093,10 +6862,10 @@
       <c r="A10" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -5209,7 +6978,7 @@
       <c r="AO10" t="s">
         <v>638</v>
       </c>
-      <c r="AP10" s="17">
+      <c r="AP10" s="16">
         <v>7200</v>
       </c>
       <c r="AQ10">
@@ -5220,10 +6989,10 @@
       <c r="A11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -5336,7 +7105,7 @@
       <c r="AO11" t="s">
         <v>639</v>
       </c>
-      <c r="AP11" s="17">
+      <c r="AP11" s="16">
         <v>8000</v>
       </c>
       <c r="AQ11">
@@ -5347,10 +7116,10 @@
       <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -5463,7 +7232,7 @@
       <c r="AO12" t="s">
         <v>639</v>
       </c>
-      <c r="AP12" s="17">
+      <c r="AP12" s="16">
         <v>15200</v>
       </c>
       <c r="AQ12">
@@ -5474,10 +7243,10 @@
       <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -5590,253 +7359,253 @@
       <c r="AO13" t="s">
         <v>638</v>
       </c>
-      <c r="AP13" s="17">
+      <c r="AP13" s="16">
         <v>14000</v>
       </c>
       <c r="AQ13">
         <v>3500</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="25" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:43" s="36" customFormat="1" ht="25" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="36">
         <v>7</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="J14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="P14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="1" t="s">
+      <c r="W14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AC14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AE14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AE14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AN14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="AP14" s="38">
         <v>0</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="30" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:43" s="36" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15">
+      <c r="C15" s="39"/>
+      <c r="D15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="36">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="J15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="S15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="1" t="s">
+      <c r="W15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AC15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AE15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AE15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN15" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5844,10 +7613,10 @@
       <c r="A16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5960,391 +7729,391 @@
       <c r="AO16" t="s">
         <v>637</v>
       </c>
-      <c r="AP16" s="17">
+      <c r="AP16" s="16">
         <v>0</v>
       </c>
       <c r="AQ16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="34" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:43" s="36" customFormat="1" ht="34" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="36">
         <v>8</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="J17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="1" t="s">
+      <c r="P17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="1" t="s">
+      <c r="W17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AB17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AC17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AF17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AJ17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="AK17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AK17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO17" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="AP17" s="17">
+      <c r="AP17" s="38">
         <v>0</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="26" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:43" s="36" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="36">
         <v>8</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="S18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA18" s="1" t="s">
+      <c r="W18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AC18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD18" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AF18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AJ18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AK18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AL18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AM18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AN18" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO18" s="36" t="s">
         <v>639</v>
       </c>
-      <c r="AP18" s="17">
+      <c r="AP18" s="38">
         <v>12000</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="36">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="36" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:43" s="36" customFormat="1" ht="36" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="36">
         <v>7</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="N19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="S19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA19" s="1" t="s">
+      <c r="W19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AC19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD19" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AE19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM19" s="1" t="s">
+      <c r="AF19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM19" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="AN19" s="1" t="s">
+      <c r="AN19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="AP19" s="17">
+      <c r="AP19" s="38">
         <v>14400</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" s="36">
         <v>2880</v>
       </c>
     </row>
@@ -6352,10 +8121,10 @@
       <c r="A20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -6466,137 +8235,137 @@
       <c r="AO20" t="s">
         <v>638</v>
       </c>
-      <c r="AP20" s="17">
+      <c r="AP20" s="16">
         <v>15200</v>
       </c>
       <c r="AQ20">
         <v>3040</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="27" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:43" s="36" customFormat="1" ht="27" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="36">
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="1" t="s">
+      <c r="J21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="P21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="S21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA21" s="1" t="s">
+      <c r="W21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AC21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AE21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AO21" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="AP21" s="17">
+      <c r="AP21" s="38">
         <v>0</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="36">
         <v>0</v>
       </c>
     </row>
@@ -6604,10 +8373,10 @@
       <c r="A22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -6720,7 +8489,7 @@
       <c r="AO22" t="s">
         <v>640</v>
       </c>
-      <c r="AP22" s="17">
+      <c r="AP22" s="16">
         <v>71200</v>
       </c>
       <c r="AQ22">
@@ -6731,10 +8500,10 @@
       <c r="A23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -6847,7 +8616,7 @@
       <c r="AO23" t="s">
         <v>640</v>
       </c>
-      <c r="AP23" s="17">
+      <c r="AP23" s="16">
         <v>38800</v>
       </c>
       <c r="AQ23">
@@ -6858,10 +8627,10 @@
       <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -6974,7 +8743,7 @@
       <c r="AO24" t="s">
         <v>640</v>
       </c>
-      <c r="AP24" s="17">
+      <c r="AP24" s="16">
         <v>26000</v>
       </c>
       <c r="AQ24">
@@ -6985,10 +8754,10 @@
       <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -7099,7 +8868,7 @@
       <c r="AO25" t="s">
         <v>640</v>
       </c>
-      <c r="AP25" s="17">
+      <c r="AP25" s="16">
         <v>7200</v>
       </c>
       <c r="AQ25">
@@ -7110,10 +8879,10 @@
       <c r="A26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -7226,7 +8995,7 @@
       <c r="AO26" t="s">
         <v>637</v>
       </c>
-      <c r="AP26" s="17">
+      <c r="AP26" s="16">
         <v>0</v>
       </c>
       <c r="AQ26">
@@ -7237,10 +9006,10 @@
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -7353,7 +9122,7 @@
       <c r="AO27" t="s">
         <v>637</v>
       </c>
-      <c r="AP27" s="17">
+      <c r="AP27" s="16">
         <v>0</v>
       </c>
       <c r="AQ27">
@@ -7364,10 +9133,10 @@
       <c r="A28" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -7480,587 +9249,601 @@
       <c r="AO28" t="s">
         <v>637</v>
       </c>
-      <c r="AP28" s="17">
+      <c r="AP28" s="16">
         <v>0</v>
       </c>
       <c r="AQ28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" s="30" customFormat="1" ht="29" customHeight="1">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:43" s="36" customFormat="1" ht="29" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="30">
+      <c r="F29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="36">
         <v>8</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O29" s="27" t="s">
+      <c r="J29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="27" t="s">
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="R29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="U29" s="27" t="s">
+      <c r="R29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="27" t="s">
+      <c r="W29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA29" s="27" t="s">
+      <c r="AA29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB29" s="27" t="s">
+      <c r="AB29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD29" s="27" t="s">
+      <c r="AC29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AE29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK29" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM29" s="27" t="s">
+      <c r="AE29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="AN29" s="27" t="s">
+      <c r="AN29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AO29" s="30" t="s">
+      <c r="AO29" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="AP29" s="44">
+      <c r="AP29" s="38">
         <v>0</v>
       </c>
-      <c r="AQ29" s="30">
+      <c r="AQ29" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" s="30" customFormat="1" ht="32" customHeight="1">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:43" s="36" customFormat="1" ht="32" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="36">
         <v>8</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" s="27" t="s">
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="T30" s="27" t="s">
+      <c r="S30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="U30" s="27" t="s">
+      <c r="U30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="W30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="27" t="s">
+      <c r="W30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA30" s="27" t="s">
+      <c r="AA30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AB30" s="27" t="s">
+      <c r="AB30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AC30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD30" s="27" t="s">
+      <c r="AC30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD30" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AE30" s="27" t="s">
+      <c r="AE30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AF30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN30" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO30" s="30" t="s">
+      <c r="AF30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO30" s="36" t="s">
         <v>637</v>
       </c>
-      <c r="AP30" s="44">
+      <c r="AP30" s="38">
         <v>0</v>
       </c>
-      <c r="AQ30" s="30">
+      <c r="AQ30" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" s="30" customFormat="1">
-      <c r="B31" s="44"/>
+    <row r="33" spans="1:257">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="30"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="32"/>
+      <c r="AY33" s="32"/>
+      <c r="AZ33" s="32"/>
+      <c r="BA33" s="30"/>
+      <c r="BB33" s="32"/>
+      <c r="BC33" s="32"/>
+      <c r="BD33" s="30"/>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="30"/>
+      <c r="BG33" s="32"/>
+      <c r="BH33" s="32"/>
+      <c r="BI33" s="32"/>
+      <c r="BJ33" s="32"/>
+      <c r="BK33" s="32"/>
+      <c r="BL33" s="32"/>
+      <c r="BM33" s="33"/>
+      <c r="BN33" s="32"/>
+      <c r="BO33" s="32"/>
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="32"/>
+      <c r="BS33" s="30"/>
+      <c r="BT33" s="30"/>
+      <c r="BU33" s="32"/>
+      <c r="BV33" s="33"/>
+      <c r="BW33" s="33"/>
+      <c r="BX33" s="32"/>
+      <c r="BY33" s="30"/>
+      <c r="BZ33" s="32"/>
+      <c r="CA33" s="32"/>
+      <c r="CB33" s="32"/>
+      <c r="CC33" s="32"/>
+      <c r="CD33" s="32"/>
+      <c r="CE33" s="32"/>
+      <c r="CF33" s="33"/>
+      <c r="CG33" s="33"/>
+      <c r="CH33" s="33"/>
+      <c r="CI33" s="33"/>
+      <c r="CJ33" s="33"/>
+      <c r="CK33" s="32"/>
+      <c r="CL33" s="30"/>
+      <c r="CM33" s="30"/>
+      <c r="CN33" s="30"/>
+      <c r="CO33" s="32"/>
+      <c r="CP33" s="32"/>
+      <c r="CQ33" s="32"/>
+      <c r="CR33" s="30"/>
+      <c r="CS33" s="32"/>
+      <c r="CT33" s="33"/>
+      <c r="CU33" s="33"/>
+      <c r="CV33" s="32"/>
+      <c r="CW33" s="32"/>
+      <c r="CX33" s="33"/>
+      <c r="CY33" s="32"/>
+      <c r="CZ33" s="32"/>
+      <c r="DA33" s="32"/>
+      <c r="DB33" s="30"/>
+      <c r="DC33" s="32"/>
+      <c r="DD33" s="32"/>
+      <c r="DE33" s="32"/>
+      <c r="DF33" s="32"/>
+      <c r="DG33" s="30"/>
+      <c r="DH33" s="33"/>
+      <c r="DI33" s="32"/>
+      <c r="DJ33" s="30"/>
+      <c r="DK33" s="32"/>
+      <c r="DL33" s="30"/>
+      <c r="DM33" s="30"/>
+      <c r="DN33" s="32"/>
+      <c r="DO33" s="32"/>
+      <c r="DP33" s="30"/>
+      <c r="DQ33" s="32"/>
+      <c r="DR33" s="33"/>
+      <c r="DS33" s="33"/>
+      <c r="DT33" s="33"/>
+      <c r="DU33" s="33"/>
+      <c r="DV33" s="30"/>
+      <c r="DW33" s="33"/>
+      <c r="DX33" s="33"/>
+      <c r="DY33" s="32"/>
+      <c r="DZ33" s="30"/>
+      <c r="EA33" s="30"/>
+      <c r="EB33" s="30"/>
+      <c r="EC33" s="32"/>
+      <c r="ED33" s="30"/>
+      <c r="EE33" s="32"/>
+      <c r="EF33" s="30"/>
+      <c r="EG33" s="32"/>
+      <c r="EH33" s="30"/>
+      <c r="EI33" s="32"/>
+      <c r="EJ33" s="30"/>
+      <c r="EK33" s="30"/>
+      <c r="EL33" s="30"/>
+      <c r="EM33" s="32"/>
+      <c r="EN33" s="32"/>
+      <c r="EO33" s="32"/>
+      <c r="EP33" s="32"/>
+      <c r="EQ33" s="32"/>
+      <c r="ER33" s="32"/>
+      <c r="ES33" s="32"/>
+      <c r="ET33" s="32"/>
+      <c r="EU33" s="30"/>
+      <c r="EV33" s="32"/>
+      <c r="EW33" s="32"/>
+      <c r="EX33" s="32"/>
+      <c r="EY33" s="32"/>
+      <c r="EZ33" s="32"/>
+      <c r="FA33" s="32"/>
+      <c r="FB33" s="32"/>
+      <c r="FC33" s="32"/>
+      <c r="FD33" s="32"/>
+      <c r="FE33" s="32"/>
+      <c r="FF33" s="32"/>
+      <c r="FG33" s="32"/>
+      <c r="FH33" s="32"/>
+      <c r="FI33" s="32"/>
+      <c r="FJ33" s="32"/>
+      <c r="FK33" s="32"/>
+      <c r="FL33" s="32"/>
+      <c r="FM33" s="32"/>
+      <c r="FN33" s="32"/>
+      <c r="FO33" s="32"/>
+      <c r="FP33" s="32"/>
+      <c r="FQ33" s="30"/>
+      <c r="FR33" s="32"/>
+      <c r="FS33" s="32"/>
+      <c r="FT33" s="30"/>
+      <c r="FU33" s="32"/>
+      <c r="FV33" s="32"/>
+      <c r="FW33" s="30"/>
+      <c r="FX33" s="32"/>
+      <c r="FY33" s="30"/>
+      <c r="FZ33" s="32"/>
+      <c r="GA33" s="30"/>
+      <c r="GB33" s="32"/>
+      <c r="GC33" s="32"/>
+      <c r="GD33" s="30"/>
+      <c r="GE33" s="32"/>
+      <c r="GF33" s="30"/>
+      <c r="GG33" s="32"/>
+      <c r="GH33" s="30"/>
+      <c r="GI33" s="32"/>
+      <c r="GJ33" s="30"/>
+      <c r="GK33" s="32"/>
+      <c r="GL33" s="33"/>
+      <c r="GM33" s="33"/>
+      <c r="GN33" s="33"/>
+      <c r="GO33" s="33"/>
+      <c r="GP33" s="33"/>
+      <c r="GQ33" s="32"/>
+      <c r="GR33" s="32"/>
+      <c r="GS33" s="32"/>
+      <c r="GT33" s="32"/>
+      <c r="GU33" s="32"/>
+      <c r="GV33" s="32"/>
+      <c r="GW33" s="32"/>
+      <c r="GX33" s="32"/>
+      <c r="GY33" s="32"/>
+      <c r="GZ33" s="32"/>
+      <c r="HA33" s="32"/>
+      <c r="HB33" s="32"/>
+      <c r="HC33" s="32"/>
+      <c r="HD33" s="32"/>
+      <c r="HE33" s="32"/>
+      <c r="HF33" s="32"/>
+      <c r="HG33" s="32"/>
+      <c r="HH33" s="32"/>
+      <c r="HI33" s="32"/>
+      <c r="HJ33" s="32"/>
+      <c r="HK33" s="32"/>
+      <c r="HL33" s="32"/>
+      <c r="HM33" s="32"/>
+      <c r="HN33" s="32"/>
+      <c r="HO33" s="32"/>
+      <c r="HP33" s="32"/>
+      <c r="HQ33" s="32"/>
+      <c r="HR33" s="32"/>
+      <c r="HS33" s="32"/>
+      <c r="HT33" s="30"/>
+      <c r="HU33" s="30"/>
+      <c r="HV33" s="30"/>
+      <c r="HW33" s="30"/>
+      <c r="HX33" s="30"/>
+      <c r="HY33" s="30"/>
+      <c r="HZ33" s="30"/>
+      <c r="IA33" s="30"/>
+      <c r="IB33" s="30"/>
+      <c r="IC33" s="30"/>
+      <c r="ID33" s="30"/>
+      <c r="IE33" s="30"/>
+      <c r="IF33" s="30"/>
+      <c r="IG33" s="30"/>
+      <c r="IH33" s="30"/>
+      <c r="II33" s="30"/>
+      <c r="IJ33" s="30"/>
+      <c r="IK33" s="30"/>
+      <c r="IL33" s="30"/>
+      <c r="IM33" s="30"/>
+      <c r="IN33" s="30"/>
+      <c r="IO33" s="30"/>
+      <c r="IP33" s="30"/>
+      <c r="IQ33" s="30"/>
+      <c r="IR33" s="30"/>
+      <c r="IS33" s="30"/>
+      <c r="IT33" s="30"/>
+      <c r="IU33" s="30"/>
+      <c r="IV33" s="30"/>
+      <c r="IW33" s="30"/>
     </row>
-    <row r="32" spans="1:43" s="30" customFormat="1">
-      <c r="B32" s="44"/>
+    <row r="34" spans="1:257">
+      <c r="B34"/>
+      <c r="H34" s="41"/>
+      <c r="GL34" s="34"/>
+      <c r="GM34" s="34"/>
+      <c r="GN34" s="34"/>
+      <c r="GO34" s="34"/>
+      <c r="GP34" s="34"/>
     </row>
-    <row r="33" spans="1:257" s="30" customFormat="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="40"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="40"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="40"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="40"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="40"/>
-      <c r="AS33" s="40"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="40"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="40"/>
-      <c r="AX33" s="40"/>
-      <c r="AY33" s="40"/>
-      <c r="AZ33" s="40"/>
-      <c r="BA33" s="38"/>
-      <c r="BB33" s="40"/>
-      <c r="BC33" s="40"/>
-      <c r="BD33" s="38"/>
-      <c r="BE33" s="38"/>
-      <c r="BF33" s="38"/>
-      <c r="BG33" s="40"/>
-      <c r="BH33" s="40"/>
-      <c r="BI33" s="40"/>
-      <c r="BJ33" s="40"/>
-      <c r="BK33" s="40"/>
-      <c r="BL33" s="40"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="40"/>
-      <c r="BO33" s="40"/>
-      <c r="BP33" s="40"/>
-      <c r="BQ33" s="40"/>
-      <c r="BR33" s="40"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="40"/>
-      <c r="BV33" s="41"/>
-      <c r="BW33" s="41"/>
-      <c r="BX33" s="40"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="40"/>
-      <c r="CA33" s="40"/>
-      <c r="CB33" s="40"/>
-      <c r="CC33" s="40"/>
-      <c r="CD33" s="40"/>
-      <c r="CE33" s="40"/>
-      <c r="CF33" s="41"/>
-      <c r="CG33" s="41"/>
-      <c r="CH33" s="41"/>
-      <c r="CI33" s="41"/>
-      <c r="CJ33" s="41"/>
-      <c r="CK33" s="40"/>
-      <c r="CL33" s="38"/>
-      <c r="CM33" s="38"/>
-      <c r="CN33" s="38"/>
-      <c r="CO33" s="40"/>
-      <c r="CP33" s="40"/>
-      <c r="CQ33" s="40"/>
-      <c r="CR33" s="38"/>
-      <c r="CS33" s="40"/>
-      <c r="CT33" s="41"/>
-      <c r="CU33" s="41"/>
-      <c r="CV33" s="40"/>
-      <c r="CW33" s="40"/>
-      <c r="CX33" s="41"/>
-      <c r="CY33" s="40"/>
-      <c r="CZ33" s="40"/>
-      <c r="DA33" s="40"/>
-      <c r="DB33" s="38"/>
-      <c r="DC33" s="40"/>
-      <c r="DD33" s="40"/>
-      <c r="DE33" s="40"/>
-      <c r="DF33" s="40"/>
-      <c r="DG33" s="38"/>
-      <c r="DH33" s="41"/>
-      <c r="DI33" s="40"/>
-      <c r="DJ33" s="38"/>
-      <c r="DK33" s="40"/>
-      <c r="DL33" s="38"/>
-      <c r="DM33" s="38"/>
-      <c r="DN33" s="40"/>
-      <c r="DO33" s="40"/>
-      <c r="DP33" s="38"/>
-      <c r="DQ33" s="40"/>
-      <c r="DR33" s="41"/>
-      <c r="DS33" s="41"/>
-      <c r="DT33" s="41"/>
-      <c r="DU33" s="41"/>
-      <c r="DV33" s="38"/>
-      <c r="DW33" s="41"/>
-      <c r="DX33" s="41"/>
-      <c r="DY33" s="40"/>
-      <c r="DZ33" s="38"/>
-      <c r="EA33" s="38"/>
-      <c r="EB33" s="38"/>
-      <c r="EC33" s="40"/>
-      <c r="ED33" s="38"/>
-      <c r="EE33" s="40"/>
-      <c r="EF33" s="38"/>
-      <c r="EG33" s="40"/>
-      <c r="EH33" s="38"/>
-      <c r="EI33" s="40"/>
-      <c r="EJ33" s="38"/>
-      <c r="EK33" s="38"/>
-      <c r="EL33" s="38"/>
-      <c r="EM33" s="40"/>
-      <c r="EN33" s="40"/>
-      <c r="EO33" s="40"/>
-      <c r="EP33" s="40"/>
-      <c r="EQ33" s="40"/>
-      <c r="ER33" s="40"/>
-      <c r="ES33" s="40"/>
-      <c r="ET33" s="40"/>
-      <c r="EU33" s="38"/>
-      <c r="EV33" s="40"/>
-      <c r="EW33" s="40"/>
-      <c r="EX33" s="40"/>
-      <c r="EY33" s="40"/>
-      <c r="EZ33" s="40"/>
-      <c r="FA33" s="40"/>
-      <c r="FB33" s="40"/>
-      <c r="FC33" s="40"/>
-      <c r="FD33" s="40"/>
-      <c r="FE33" s="40"/>
-      <c r="FF33" s="40"/>
-      <c r="FG33" s="40"/>
-      <c r="FH33" s="40"/>
-      <c r="FI33" s="40"/>
-      <c r="FJ33" s="40"/>
-      <c r="FK33" s="40"/>
-      <c r="FL33" s="40"/>
-      <c r="FM33" s="40"/>
-      <c r="FN33" s="40"/>
-      <c r="FO33" s="40"/>
-      <c r="FP33" s="40"/>
-      <c r="FQ33" s="38"/>
-      <c r="FR33" s="40"/>
-      <c r="FS33" s="40"/>
-      <c r="FT33" s="38"/>
-      <c r="FU33" s="40"/>
-      <c r="FV33" s="40"/>
-      <c r="FW33" s="38"/>
-      <c r="FX33" s="40"/>
-      <c r="FY33" s="38"/>
-      <c r="FZ33" s="40"/>
-      <c r="GA33" s="38"/>
-      <c r="GB33" s="40"/>
-      <c r="GC33" s="40"/>
-      <c r="GD33" s="38"/>
-      <c r="GE33" s="40"/>
-      <c r="GF33" s="38"/>
-      <c r="GG33" s="40"/>
-      <c r="GH33" s="38"/>
-      <c r="GI33" s="40"/>
-      <c r="GJ33" s="38"/>
-      <c r="GK33" s="40"/>
-      <c r="GL33" s="41"/>
-      <c r="GM33" s="41"/>
-      <c r="GN33" s="41"/>
-      <c r="GO33" s="41"/>
-      <c r="GP33" s="41"/>
-      <c r="GQ33" s="40"/>
-      <c r="GR33" s="40"/>
-      <c r="GS33" s="40"/>
-      <c r="GT33" s="40"/>
-      <c r="GU33" s="40"/>
-      <c r="GV33" s="40"/>
-      <c r="GW33" s="40"/>
-      <c r="GX33" s="40"/>
-      <c r="GY33" s="40"/>
-      <c r="GZ33" s="40"/>
-      <c r="HA33" s="40"/>
-      <c r="HB33" s="40"/>
-      <c r="HC33" s="40"/>
-      <c r="HD33" s="40"/>
-      <c r="HE33" s="40"/>
-      <c r="HF33" s="40"/>
-      <c r="HG33" s="40"/>
-      <c r="HH33" s="40"/>
-      <c r="HI33" s="40"/>
-      <c r="HJ33" s="40"/>
-      <c r="HK33" s="40"/>
-      <c r="HL33" s="40"/>
-      <c r="HM33" s="40"/>
-      <c r="HN33" s="40"/>
-      <c r="HO33" s="40"/>
-      <c r="HP33" s="40"/>
-      <c r="HQ33" s="40"/>
-      <c r="HR33" s="40"/>
-      <c r="HS33" s="40"/>
-      <c r="HT33" s="38"/>
-      <c r="HU33" s="38"/>
-      <c r="HV33" s="38"/>
-      <c r="HW33" s="38"/>
-      <c r="HX33" s="38"/>
-      <c r="HY33" s="38"/>
-      <c r="HZ33" s="38"/>
-      <c r="IA33" s="38"/>
-      <c r="IB33" s="38"/>
-      <c r="IC33" s="38"/>
-      <c r="ID33" s="38"/>
-      <c r="IE33" s="38"/>
-      <c r="IF33" s="38"/>
-      <c r="IG33" s="38"/>
-      <c r="IH33" s="38"/>
-      <c r="II33" s="38"/>
-      <c r="IJ33" s="38"/>
-      <c r="IK33" s="38"/>
-      <c r="IL33" s="38"/>
-      <c r="IM33" s="38"/>
-      <c r="IN33" s="38"/>
-      <c r="IO33" s="38"/>
-      <c r="IP33" s="38"/>
-      <c r="IQ33" s="38"/>
-      <c r="IR33" s="38"/>
-      <c r="IS33" s="38"/>
-      <c r="IT33" s="38"/>
-      <c r="IU33" s="38"/>
-      <c r="IV33" s="38"/>
-      <c r="IW33" s="38"/>
+    <row r="35" spans="1:257">
+      <c r="B35"/>
+      <c r="H35" s="41"/>
+      <c r="GL35" s="34"/>
+      <c r="GM35" s="34"/>
+      <c r="GN35" s="34"/>
     </row>
-    <row r="34" spans="1:257" s="30" customFormat="1">
-      <c r="GL34" s="42"/>
-      <c r="GM34" s="42"/>
-      <c r="GN34" s="42"/>
-      <c r="GO34" s="42"/>
-      <c r="GP34" s="42"/>
+    <row r="36" spans="1:257">
+      <c r="B36"/>
+      <c r="H36" s="41"/>
+      <c r="GL36" s="34"/>
+      <c r="GM36" s="34"/>
+      <c r="GN36" s="34"/>
     </row>
-    <row r="35" spans="1:257" s="30" customFormat="1">
-      <c r="GL35" s="42"/>
-      <c r="GM35" s="42"/>
-      <c r="GN35" s="42"/>
+    <row r="37" spans="1:257">
+      <c r="B37"/>
+      <c r="H37" s="41"/>
+      <c r="GL37" s="34"/>
+      <c r="GM37" s="34"/>
+      <c r="GN37" s="34"/>
     </row>
-    <row r="36" spans="1:257" s="30" customFormat="1">
-      <c r="GL36" s="42"/>
-      <c r="GM36" s="42"/>
-      <c r="GN36" s="42"/>
+    <row r="38" spans="1:257">
+      <c r="B38"/>
+      <c r="GL38" s="34"/>
+      <c r="GM38" s="34"/>
+      <c r="GN38" s="34"/>
     </row>
-    <row r="37" spans="1:257" s="30" customFormat="1">
-      <c r="GL37" s="42"/>
-      <c r="GM37" s="42"/>
-      <c r="GN37" s="42"/>
+    <row r="39" spans="1:257">
+      <c r="B39"/>
+      <c r="GL39" s="34"/>
+      <c r="GM39" s="34"/>
+      <c r="GN39" s="34"/>
     </row>
-    <row r="38" spans="1:257" s="30" customFormat="1">
-      <c r="GL38" s="42"/>
-      <c r="GM38" s="42"/>
-      <c r="GN38" s="42"/>
+    <row r="40" spans="1:257">
+      <c r="B40"/>
+      <c r="GL40" s="34"/>
+      <c r="GM40" s="34"/>
+      <c r="GN40" s="34"/>
     </row>
-    <row r="39" spans="1:257" s="30" customFormat="1">
-      <c r="GL39" s="42"/>
-      <c r="GM39" s="42"/>
-      <c r="GN39" s="42"/>
+    <row r="41" spans="1:257">
+      <c r="B41"/>
+      <c r="GL41" s="34"/>
+      <c r="GM41" s="34"/>
+      <c r="GN41" s="34"/>
     </row>
-    <row r="40" spans="1:257" s="30" customFormat="1">
-      <c r="GL40" s="42"/>
-      <c r="GM40" s="42"/>
-      <c r="GN40" s="42"/>
+    <row r="42" spans="1:257">
+      <c r="B42"/>
+      <c r="GL42" s="34"/>
+      <c r="GM42" s="34"/>
+      <c r="GN42" s="34"/>
     </row>
-    <row r="41" spans="1:257" s="30" customFormat="1">
-      <c r="GL41" s="42"/>
-      <c r="GM41" s="42"/>
-      <c r="GN41" s="42"/>
+    <row r="43" spans="1:257">
+      <c r="B43"/>
+      <c r="GL43" s="34"/>
+      <c r="GM43" s="34"/>
+      <c r="GN43" s="34"/>
     </row>
-    <row r="42" spans="1:257" s="30" customFormat="1">
-      <c r="GL42" s="42"/>
-      <c r="GM42" s="42"/>
-      <c r="GN42" s="42"/>
+    <row r="44" spans="1:257">
+      <c r="B44"/>
     </row>
-    <row r="43" spans="1:257" s="30" customFormat="1">
-      <c r="GL43" s="42"/>
-      <c r="GM43" s="42"/>
-      <c r="GN43" s="42"/>
+    <row r="45" spans="1:257">
+      <c r="B45"/>
     </row>
-    <row r="44" spans="1:257" s="30" customFormat="1"/>
-    <row r="45" spans="1:257" s="30" customFormat="1"/>
-    <row r="46" spans="1:257" s="30" customFormat="1"/>
+    <row r="46" spans="1:257">
+      <c r="B46"/>
+    </row>
     <row r="47" spans="1:257">
       <c r="B47"/>
     </row>
@@ -8074,6 +9857,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D9C094-5E70-0649-8252-E50E884E8A43}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="77.5" customWidth="1"/>
+    <col min="2" max="2" width="112.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16">
+      <c r="A20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16">
+      <c r="A21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16">
+      <c r="A26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16">
+      <c r="A27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16">
+      <c r="A29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16">
+      <c r="A30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>727</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16">
+      <c r="A39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16">
+      <c r="A40" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16">
+      <c r="A41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0BA2E1-C54C-FA4A-B199-B0433751902F}">
   <dimension ref="A1:I40"/>
   <sheetViews>
@@ -8095,16 +10204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>647</v>
       </c>
     </row>
@@ -8112,7 +10221,7 @@
       <c r="A2" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>678</v>
       </c>
       <c r="C2" t="s">
@@ -8126,7 +10235,7 @@
       <c r="A3" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>679</v>
       </c>
       <c r="C3" t="s">
@@ -8140,7 +10249,7 @@
       <c r="A4" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>680</v>
       </c>
       <c r="C4" t="s">
@@ -8154,7 +10263,7 @@
       <c r="A5" t="s">
         <v>651</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>681</v>
       </c>
       <c r="C5" t="s">
@@ -8168,7 +10277,7 @@
       <c r="A6" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>682</v>
       </c>
       <c r="C6" t="s">
@@ -8182,7 +10291,7 @@
       <c r="A7" t="s">
         <v>360</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>683</v>
       </c>
       <c r="C7" t="s">
@@ -8196,13 +10305,13 @@
       <c r="A8" t="s">
         <v>653</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>684</v>
       </c>
       <c r="C8" t="s">
         <v>692</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8210,13 +10319,13 @@
       <c r="A9" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>685</v>
       </c>
       <c r="C9" t="s">
         <v>693</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8224,13 +10333,13 @@
       <c r="A10" t="s">
         <v>655</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>669</v>
       </c>
       <c r="C10" t="s">
         <v>693</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>701</v>
       </c>
     </row>
@@ -8238,13 +10347,13 @@
       <c r="A11" t="s">
         <v>656</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>686</v>
       </c>
       <c r="C11" t="s">
         <v>693</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8252,13 +10361,13 @@
       <c r="A12" t="s">
         <v>658</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>687</v>
       </c>
       <c r="C12" t="s">
         <v>694</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8266,13 +10375,13 @@
       <c r="A13" t="s">
         <v>659</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>675</v>
       </c>
       <c r="C13" t="s">
         <v>694</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>702</v>
       </c>
     </row>
@@ -8280,7 +10389,7 @@
       <c r="A14" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>687</v>
       </c>
       <c r="C14" t="s">
@@ -8294,7 +10403,7 @@
       <c r="A15" t="s">
         <v>661</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>705</v>
       </c>
       <c r="C15" t="s">
@@ -8308,7 +10417,7 @@
       <c r="A16" t="s">
         <v>662</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>687</v>
       </c>
       <c r="C16" t="s">
@@ -8322,7 +10431,7 @@
       <c r="A17" t="s">
         <v>663</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>707</v>
       </c>
       <c r="C17" t="s">
@@ -8336,7 +10445,7 @@
       <c r="A18" t="s">
         <v>664</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>708</v>
       </c>
       <c r="C18" t="s">
@@ -8350,7 +10459,7 @@
       <c r="A19" t="s">
         <v>665</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>705</v>
       </c>
       <c r="C19" t="s">
@@ -8364,7 +10473,7 @@
       <c r="A20" t="s">
         <v>666</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>710</v>
       </c>
       <c r="C20" t="s">
@@ -8378,7 +10487,7 @@
       <c r="A21" t="s">
         <v>650</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>711</v>
       </c>
       <c r="C21" t="s">
@@ -8392,13 +10501,13 @@
       <c r="A22" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>681</v>
       </c>
       <c r="C22" t="s">
         <v>714</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8406,13 +10515,13 @@
       <c r="A23" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>712</v>
       </c>
       <c r="C23" t="s">
         <v>714</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8420,99 +10529,99 @@
       <c r="A24" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>713</v>
       </c>
       <c r="C24" t="s">
         <v>693</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>713</v>
       </c>
       <c r="C25" t="s">
         <v>693</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="16">
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" ht="16">
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="16">
-      <c r="A30" s="20"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="20"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8522,7 +10631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFA7321-B066-C04F-8A85-70BB38C748B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8534,7 +10643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEB7BFA-A739-7642-93E7-DB6E783D2F5C}">
   <dimension ref="B4:H29"/>
   <sheetViews>
@@ -8730,12 +10839,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93752094-5985-6C43-BBD9-F01561F0A315}">
   <dimension ref="A1:CI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="15"/>
@@ -8753,10 +10862,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>631</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -9011,10 +11120,10 @@
       <c r="CH1" s="2"/>
     </row>
     <row r="2" spans="1:86" ht="64">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -9255,7 +11364,7 @@
         <v>125</v>
       </c>
       <c r="CD2" s="8">
-        <f>SUM(BV2:CC2)</f>
+        <f t="shared" ref="CD2:CD17" si="0">SUM(BV2:CC2)</f>
         <v>0</v>
       </c>
       <c r="CE2" s="1" t="s">
@@ -9270,10 +11379,10 @@
       <c r="CH2" s="1"/>
     </row>
     <row r="3" spans="1:86" ht="64">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9514,7 +11623,7 @@
         <v>125</v>
       </c>
       <c r="CD3" s="8">
-        <f>SUM(BV3:CC3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE3" s="1" t="s">
@@ -9529,10 +11638,10 @@
       <c r="CH3" s="1"/>
     </row>
     <row r="4" spans="1:86" ht="64">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9773,7 +11882,7 @@
         <v>125</v>
       </c>
       <c r="CD4" s="8">
-        <f>SUM(BV4:CC4)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="CE4" s="1" t="s">
@@ -9788,10 +11897,10 @@
       <c r="CH4" s="1"/>
     </row>
     <row r="5" spans="1:86" ht="64">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -10032,7 +12141,7 @@
         <v>125</v>
       </c>
       <c r="CD5" s="8">
-        <f>SUM(BV5:CC5)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="CE5" s="1" t="s">
@@ -10047,10 +12156,10 @@
       <c r="CH5" s="1"/>
     </row>
     <row r="6" spans="1:86" ht="80">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -10291,7 +12400,7 @@
         <v>125</v>
       </c>
       <c r="CD6" s="8">
-        <f>SUM(BV6:CC6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE6" s="1" t="s">
@@ -10306,10 +12415,10 @@
       <c r="CH6" s="1"/>
     </row>
     <row r="7" spans="1:86" ht="64">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -10550,7 +12659,7 @@
         <v>125</v>
       </c>
       <c r="CD7" s="8">
-        <f>SUM(BV7:CC7)</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="CE7" s="1" t="s">
@@ -10565,10 +12674,10 @@
       <c r="CH7" s="1"/>
     </row>
     <row r="8" spans="1:86" ht="80">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -10809,7 +12918,7 @@
         <v>125</v>
       </c>
       <c r="CD8" s="8">
-        <f>SUM(BV8:CC8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE8" s="1" t="s">
@@ -10824,10 +12933,10 @@
       <c r="CH8" s="1"/>
     </row>
     <row r="9" spans="1:86" ht="144">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -11068,7 +13177,7 @@
         <v>125</v>
       </c>
       <c r="CD9" s="8">
-        <f>SUM(BV9:CC9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE9" s="1" t="s">
@@ -11083,10 +13192,10 @@
       <c r="CH9" s="1"/>
     </row>
     <row r="10" spans="1:86" ht="144">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -11327,7 +13436,7 @@
         <v>125</v>
       </c>
       <c r="CD10" s="8">
-        <f>SUM(BV10:CC10)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="CE10" s="1" t="s">
@@ -11342,10 +13451,10 @@
       <c r="CH10" s="1"/>
     </row>
     <row r="11" spans="1:86" ht="128">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -11586,7 +13695,7 @@
         <v>125</v>
       </c>
       <c r="CD11" s="8">
-        <f>SUM(BV11:CC11)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="CE11" s="1" t="s">
@@ -11601,13 +13710,13 @@
       <c r="CH11" s="1"/>
     </row>
     <row r="12" spans="1:86" ht="64">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -11845,7 +13954,7 @@
         <v>125</v>
       </c>
       <c r="CD12" s="8">
-        <f>SUM(BV12:CC12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE12" s="1" t="s">
@@ -11860,10 +13969,10 @@
       <c r="CH12" s="1"/>
     </row>
     <row r="13" spans="1:86" ht="64">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -12104,7 +14213,7 @@
         <v>125</v>
       </c>
       <c r="CD13" s="8">
-        <f>SUM(BV13:CC13)</f>
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="CE13" s="1" t="s">
@@ -12119,10 +14228,10 @@
       <c r="CH13" s="1"/>
     </row>
     <row r="14" spans="1:86" ht="64">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -12363,7 +14472,7 @@
         <v>125</v>
       </c>
       <c r="CD14" s="8">
-        <f>SUM(BV14:CC14)</f>
+        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
       <c r="CE14" s="1" t="s">
@@ -12378,10 +14487,10 @@
       <c r="CH14" s="1"/>
     </row>
     <row r="15" spans="1:86" ht="64">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -12622,7 +14731,7 @@
         <v>125</v>
       </c>
       <c r="CD15" s="8">
-        <f>SUM(BV15:CC15)</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="CF15" s="1"/>
@@ -12632,10 +14741,10 @@
       <c r="CH15" s="1"/>
     </row>
     <row r="16" spans="1:86" ht="64">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -12876,7 +14985,7 @@
         <v>125</v>
       </c>
       <c r="CD16" s="8">
-        <f>SUM(BV16:CC16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE16" s="1" t="s">
@@ -12891,10 +15000,10 @@
       <c r="CH16" s="1"/>
     </row>
     <row r="17" spans="1:87" ht="48">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -13135,7 +15244,7 @@
         <v>125</v>
       </c>
       <c r="CD17" s="8">
-        <f>SUM(BV17:CC17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="CE17" s="1" t="s">
@@ -13150,10 +15259,10 @@
       <c r="CH17" s="1"/>
     </row>
     <row r="18" spans="1:87" ht="48">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -13394,7 +15503,7 @@
         <v>125</v>
       </c>
       <c r="CD18" s="8">
-        <f t="shared" ref="CD18" si="0">SUM(BV18:CC18)</f>
+        <f t="shared" ref="CD18" si="1">SUM(BV18:CC18)</f>
         <v>3000</v>
       </c>
       <c r="CE18" s="1" t="s">
@@ -13409,10 +15518,10 @@
       <c r="CH18" s="1"/>
     </row>
     <row r="19" spans="1:87" ht="48">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -13653,7 +15762,7 @@
         <v>125</v>
       </c>
       <c r="CD19" s="8">
-        <f>SUM(BV19:CC19)</f>
+        <f t="shared" ref="CD19:CD32" si="2">SUM(BV19:CC19)</f>
         <v>3600</v>
       </c>
       <c r="CE19" s="1" t="s">
@@ -13668,10 +15777,10 @@
       <c r="CH19" s="1"/>
     </row>
     <row r="20" spans="1:87" ht="64">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -13912,7 +16021,7 @@
         <v>125</v>
       </c>
       <c r="CD20" s="8">
-        <f>SUM(BV20:CC20)</f>
+        <f t="shared" si="2"/>
         <v>3800</v>
       </c>
       <c r="CE20" s="1" t="s">
@@ -13927,10 +16036,10 @@
       <c r="CH20" s="1"/>
     </row>
     <row r="21" spans="1:87" ht="64">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -14171,7 +16280,7 @@
         <v>125</v>
       </c>
       <c r="CD21" s="8">
-        <f>SUM(BV21:CC21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CE21" s="1" t="s">
@@ -14186,10 +16295,10 @@
       <c r="CH21" s="1"/>
     </row>
     <row r="22" spans="1:87" ht="64">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -14430,7 +16539,7 @@
         <v>4500</v>
       </c>
       <c r="CD22" s="8">
-        <f>SUM(BV22:CC22)</f>
+        <f t="shared" si="2"/>
         <v>17800</v>
       </c>
       <c r="CE22" s="1" t="s">
@@ -14445,10 +16554,10 @@
       <c r="CH22" s="1"/>
     </row>
     <row r="23" spans="1:87" ht="64">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -14689,7 +16798,7 @@
         <v>125</v>
       </c>
       <c r="CD23" s="8">
-        <f>SUM(BV23:CC23)</f>
+        <f t="shared" si="2"/>
         <v>9700</v>
       </c>
       <c r="CE23" s="1" t="s">
@@ -14702,13 +16811,13 @@
         <v>640</v>
       </c>
       <c r="CH23" s="1"/>
-      <c r="CI23" s="18"/>
+      <c r="CI23" s="17"/>
     </row>
     <row r="24" spans="1:87" ht="64">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -14949,7 +17058,7 @@
         <v>125</v>
       </c>
       <c r="CD24" s="8">
-        <f>SUM(BV24:CC24)</f>
+        <f t="shared" si="2"/>
         <v>6500</v>
       </c>
       <c r="CE24" s="1" t="s">
@@ -14964,10 +17073,10 @@
       <c r="CH24" s="1"/>
     </row>
     <row r="25" spans="1:87" ht="64">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -15208,7 +17317,7 @@
         <v>125</v>
       </c>
       <c r="CD25" s="8">
-        <f>SUM(BV25:CC25)</f>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="CE25" s="1" t="s">
@@ -15223,10 +17332,10 @@
       <c r="CH25" s="1"/>
     </row>
     <row r="26" spans="1:87" ht="64">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -15467,7 +17576,7 @@
         <v>125</v>
       </c>
       <c r="CD26" s="8">
-        <f>SUM(BV26:CC26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CE26" s="1" t="s">
@@ -15482,10 +17591,10 @@
       <c r="CH26" s="1"/>
     </row>
     <row r="27" spans="1:87" ht="96">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -15726,7 +17835,7 @@
         <v>125</v>
       </c>
       <c r="CD27" s="8">
-        <f>SUM(BV27:CC27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CE27" s="1" t="s">
@@ -15741,10 +17850,10 @@
       <c r="CH27" s="1"/>
     </row>
     <row r="28" spans="1:87" ht="64">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -15985,7 +18094,7 @@
         <v>125</v>
       </c>
       <c r="CD28" s="8">
-        <f>SUM(BV28:CC28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CE28" s="1" t="s">
@@ -16000,10 +18109,10 @@
       <c r="CH28" s="1"/>
     </row>
     <row r="29" spans="1:87" ht="64">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -16244,7 +18353,7 @@
         <v>125</v>
       </c>
       <c r="CD29" s="8">
-        <f>SUM(BV29:CC29)</f>
+        <f t="shared" si="2"/>
         <v>4900</v>
       </c>
       <c r="CG29" t="s">
@@ -16252,10 +18361,10 @@
       </c>
     </row>
     <row r="30" spans="1:87" ht="64">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -16496,7 +18605,7 @@
         <v>125</v>
       </c>
       <c r="CD30" s="8">
-        <f>SUM(BV30:CC30)</f>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="CF30" s="1"/>
@@ -16506,10 +18615,10 @@
       <c r="CH30" s="1"/>
     </row>
     <row r="31" spans="1:87" ht="64">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -16750,7 +18859,7 @@
         <v>125</v>
       </c>
       <c r="CD31" s="8">
-        <f>SUM(BV31:CC31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CF31" s="1"/>
@@ -16759,10 +18868,10 @@
       </c>
     </row>
     <row r="32" spans="1:87" ht="64">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -17003,7 +19112,7 @@
         <v>125</v>
       </c>
       <c r="CD32" s="8">
-        <f>SUM(BV32:CC32)</f>
+        <f t="shared" si="2"/>
         <v>3800</v>
       </c>
       <c r="CF32" s="1"/>
@@ -17013,408 +19122,402 @@
       <c r="CH32" s="1"/>
     </row>
     <row r="39" spans="1:87" ht="16">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
       <c r="CI39" s="4"/>
     </row>
     <row r="40" spans="1:87" ht="16">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
       <c r="CI40" s="4"/>
     </row>
     <row r="41" spans="1:87" ht="16">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
       <c r="CI41" s="4"/>
     </row>
     <row r="42" spans="1:87" ht="16">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="CI42" s="4"/>
     </row>
     <row r="43" spans="1:87" ht="16">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="35"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="27"/>
       <c r="CI43" s="4"/>
     </row>
     <row r="44" spans="1:87" ht="16">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="35"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="27"/>
       <c r="CI44" s="4"/>
     </row>
     <row r="45" spans="1:87" ht="16">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="35"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="27"/>
       <c r="CI45" s="4"/>
     </row>
     <row r="46" spans="1:87" ht="16">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="35"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="27"/>
       <c r="CI46" s="4"/>
     </row>
     <row r="47" spans="1:87" ht="16">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="27"/>
       <c r="CI47" s="4"/>
     </row>
     <row r="48" spans="1:87" ht="16">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="27"/>
       <c r="CI48" s="4"/>
     </row>
     <row r="49" spans="1:87" ht="16">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="35"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="27"/>
       <c r="CI49" s="4"/>
     </row>
     <row r="50" spans="1:87" ht="16">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="35"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="27"/>
       <c r="CI50" s="4"/>
     </row>
     <row r="51" spans="1:87" ht="16">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="35"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="27"/>
       <c r="CI51" s="4"/>
     </row>
     <row r="52" spans="1:87" ht="16">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="35"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="27"/>
       <c r="CI52" s="4"/>
     </row>
     <row r="53" spans="1:87" ht="16">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="35"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="27"/>
       <c r="CI53" s="4"/>
     </row>
     <row r="54" spans="1:87" ht="16">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="35"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="27"/>
       <c r="CI54" s="4"/>
     </row>
     <row r="55" spans="1:87" ht="16">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="35"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="27"/>
       <c r="CI55" s="4"/>
     </row>
     <row r="56" spans="1:87" ht="16">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="35"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="27"/>
       <c r="CI56" s="4"/>
     </row>
     <row r="57" spans="1:87" ht="16">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="35"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="27"/>
       <c r="CI57" s="4"/>
     </row>
     <row r="58" spans="1:87" ht="16">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="35"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="27"/>
       <c r="CI58" s="4"/>
     </row>
     <row r="59" spans="1:87" ht="16">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="35"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="27"/>
       <c r="CI59" s="4"/>
     </row>
     <row r="60" spans="1:87" ht="16">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="35"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="27"/>
       <c r="CI60" s="4"/>
     </row>
     <row r="61" spans="1:87" ht="16">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="35"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="27"/>
       <c r="CI61" s="4"/>
     </row>
     <row r="62" spans="1:87" ht="16">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="35"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="27"/>
       <c r="CI62" s="4"/>
     </row>
     <row r="63" spans="1:87" ht="16">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="35"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="27"/>
       <c r="CI63" s="4"/>
     </row>
     <row r="64" spans="1:87" ht="16">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="35"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="27"/>
       <c r="CI64" s="4"/>
     </row>
     <row r="65" spans="1:4" ht="16">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="35"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="27"/>
     </row>
     <row r="66" spans="1:4" ht="16">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="35"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" ht="16">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="35"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="27"/>
     </row>
     <row r="68" spans="1:4" ht="16">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="35"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" ht="16">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="35"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="27"/>
     </row>
     <row r="70" spans="1:4" ht="16">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="35"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:4" ht="16">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="35"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="27"/>
     </row>
     <row r="72" spans="1:4" ht="16">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="35"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="27"/>
     </row>
     <row r="73" spans="1:4" ht="16">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="35"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="27"/>
     </row>
     <row r="74" spans="1:4" ht="16">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="35"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="27"/>
     </row>
     <row r="75" spans="1:4" ht="16">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="36"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="29"/>
     </row>
     <row r="76" spans="1:4" ht="16">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="35"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="1:4" ht="16">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="35"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:4" ht="16">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="35"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="27"/>
     </row>
     <row r="79" spans="1:4" ht="16">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="35"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="27"/>
     </row>
     <row r="80" spans="1:4" ht="16">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="37"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4" ht="16">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="36"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="1:4" ht="16">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="35"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="1:4" ht="16">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="35"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="27"/>
     </row>
     <row r="84" spans="1:4" ht="16">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="35"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="27"/>
     </row>
     <row r="85" spans="1:4" ht="16">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="35"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="16">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="35"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="27"/>
     </row>
     <row r="87" spans="1:4" ht="16">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="35"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" ht="16">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="35"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="27"/>
     </row>
     <row r="89" spans="1:4" ht="16">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="35"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" ht="16">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="35"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="27"/>
     </row>
     <row r="91" spans="1:4" ht="16">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="35"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="92" spans="1:4" ht="16">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="35"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="1:4" ht="16">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="35"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="27"/>
     </row>
     <row r="94" spans="1:4" ht="16">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="35"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="27"/>
     </row>
     <row r="95" spans="1:4" ht="16">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="35"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="27"/>
     </row>
     <row r="96" spans="1:4" ht="16">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="35"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="27"/>
     </row>
     <row r="97" spans="1:4" ht="16">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="35"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="27"/>
     </row>
     <row r="98" spans="1:4" ht="16">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="35"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="27"/>
     </row>
     <row r="99" spans="1:4" ht="16">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="36"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="29"/>
     </row>
     <row r="100" spans="1:4" ht="16">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="35"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101" spans="1:4" ht="16">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="36"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="29"/>
     </row>
     <row r="102" spans="1:4" ht="16">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="35"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CG37">
@@ -17424,7 +19527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DO68"/>
   <sheetViews>
